--- a/promotion/all.xlsx
+++ b/promotion/all.xlsx
@@ -1340,10 +1340,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>藍天</v>
+        <v>傻逼</v>
       </c>
       <c r="B118" t="str">
-        <v>lt1</v>
+        <v>sb</v>
       </c>
     </row>
   </sheetData>
